--- a/uploads/attachments/2020/FebMobile Post Disconnected.xlsx
+++ b/uploads/attachments/2020/FebMobile Post Disconnected.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Hackathon 2020\Data\subs\Mobile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -66,12 +61,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,23 +479,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +506,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="13" t="s">
         <v>2</v>
@@ -524,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -535,7 +530,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -544,7 +539,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -553,7 +548,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -566,7 +561,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -577,7 +572,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -587,7 +582,7 @@
       <c r="E8" s="7"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -597,7 +592,7 @@
       <c r="E9" s="7"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -607,7 +602,7 @@
       <c r="E10" s="7"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -619,7 +614,7 @@
       <c r="E11" s="7"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -629,7 +624,7 @@
       <c r="E12" s="7"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
@@ -639,7 +634,7 @@
       <c r="E13" s="7"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -653,7 +648,7 @@
       </c>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -665,7 +660,7 @@
       <c r="E15" s="7"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -675,7 +670,7 @@
       <c r="E16" s="7"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>7</v>
@@ -685,7 +680,7 @@
       <c r="E17" s="7"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
@@ -695,7 +690,7 @@
       <c r="E18" s="7"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="C20" s="9"/>
     </row>
   </sheetData>
@@ -708,12 +703,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/attachments/2020/FebMobile Post Disconnected.xlsx
+++ b/uploads/attachments/2020/FebMobile Post Disconnected.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\subs\Mobile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>C</t>
   </si>
@@ -56,17 +61,47 @@
   </si>
   <si>
     <t>2G | 3G Prepaid</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -193,7 +228,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -479,47 +513,77 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -529,8 +593,18 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -538,8 +612,18 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -547,8 +631,18 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -560,8 +654,38 @@
       <c r="E6" s="7">
         <v>299</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="7">
+        <v>199</v>
+      </c>
+      <c r="G6" s="7">
+        <v>299</v>
+      </c>
+      <c r="H6" s="7">
+        <v>199</v>
+      </c>
+      <c r="I6" s="7">
+        <v>299</v>
+      </c>
+      <c r="J6" s="7">
+        <v>199</v>
+      </c>
+      <c r="K6" s="7">
+        <v>299</v>
+      </c>
+      <c r="L6" s="7">
+        <v>199</v>
+      </c>
+      <c r="M6" s="7">
+        <v>299</v>
+      </c>
+      <c r="N6" s="7">
+        <v>199</v>
+      </c>
+      <c r="O6" s="7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -571,8 +695,18 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -580,9 +714,18 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -590,9 +733,18 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -600,9 +752,18 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -612,9 +773,18 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -622,9 +792,18 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
@@ -632,9 +811,18 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -646,9 +834,38 @@
       <c r="E14" s="7">
         <v>210</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="7">
+        <v>110</v>
+      </c>
+      <c r="G14" s="7">
+        <v>210</v>
+      </c>
+      <c r="H14" s="7">
+        <v>110</v>
+      </c>
+      <c r="I14" s="7">
+        <v>210</v>
+      </c>
+      <c r="J14" s="7">
+        <v>110</v>
+      </c>
+      <c r="K14" s="7">
+        <v>210</v>
+      </c>
+      <c r="L14" s="7">
+        <v>110</v>
+      </c>
+      <c r="M14" s="7">
+        <v>210</v>
+      </c>
+      <c r="N14" s="7">
+        <v>110</v>
+      </c>
+      <c r="O14" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -658,9 +875,18 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -668,9 +894,18 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>7</v>
@@ -678,9 +913,18 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
@@ -688,9 +932,18 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
     </row>
   </sheetData>
@@ -703,12 +956,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/attachments/2020/FebMobile Post Disconnected.xlsx
+++ b/uploads/attachments/2020/FebMobile Post Disconnected.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\subs\Mobile\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>C</t>
   </si>
@@ -61,47 +56,17 @@
   </si>
   <si>
     <t>2G | 3G Prepaid</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -228,6 +193,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -513,77 +479,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3"/>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -593,18 +529,8 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>6</v>
@@ -612,18 +538,8 @@
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="6"/>
       <c r="B5" s="6" t="s">
         <v>7</v>
@@ -631,18 +547,8 @@
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="6"/>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -654,38 +560,8 @@
       <c r="E6" s="7">
         <v>299</v>
       </c>
-      <c r="F6" s="7">
-        <v>199</v>
-      </c>
-      <c r="G6" s="7">
-        <v>299</v>
-      </c>
-      <c r="H6" s="7">
-        <v>199</v>
-      </c>
-      <c r="I6" s="7">
-        <v>299</v>
-      </c>
-      <c r="J6" s="7">
-        <v>199</v>
-      </c>
-      <c r="K6" s="7">
-        <v>299</v>
-      </c>
-      <c r="L6" s="7">
-        <v>199</v>
-      </c>
-      <c r="M6" s="7">
-        <v>299</v>
-      </c>
-      <c r="N6" s="7">
-        <v>199</v>
-      </c>
-      <c r="O6" s="7">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -695,18 +571,8 @@
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="6"/>
       <c r="B8" s="6" t="s">
         <v>6</v>
@@ -714,18 +580,9 @@
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>7</v>
@@ -733,18 +590,9 @@
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -752,18 +600,9 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -773,18 +612,9 @@
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="6"/>
       <c r="B12" s="6" t="s">
         <v>6</v>
@@ -792,18 +622,9 @@
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="6" t="s">
         <v>7</v>
@@ -811,18 +632,9 @@
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="6"/>
       <c r="B14" s="6" t="s">
         <v>8</v>
@@ -834,38 +646,9 @@
       <c r="E14" s="7">
         <v>210</v>
       </c>
-      <c r="F14" s="7">
-        <v>110</v>
-      </c>
-      <c r="G14" s="7">
-        <v>210</v>
-      </c>
-      <c r="H14" s="7">
-        <v>110</v>
-      </c>
-      <c r="I14" s="7">
-        <v>210</v>
-      </c>
-      <c r="J14" s="7">
-        <v>110</v>
-      </c>
-      <c r="K14" s="7">
-        <v>210</v>
-      </c>
-      <c r="L14" s="7">
-        <v>110</v>
-      </c>
-      <c r="M14" s="7">
-        <v>210</v>
-      </c>
-      <c r="N14" s="7">
-        <v>110</v>
-      </c>
-      <c r="O14" s="7">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -875,18 +658,9 @@
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -894,18 +668,9 @@
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>7</v>
@@ -913,18 +678,9 @@
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="6"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
@@ -932,18 +688,9 @@
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="C20" s="9"/>
     </row>
   </sheetData>
@@ -956,12 +703,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
